--- a/article_Barents_microdistribution/cockle abundance.xlsx
+++ b/article_Barents_microdistribution/cockle abundance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>Cerastoderma edule mean abundance across the range</t>
   </si>
@@ -114,7 +114,7 @@
     <t>Morocco, Atlantic</t>
   </si>
   <si>
-    <t>Merja Zerga </t>
+    <t>Merja Zerga</t>
   </si>
   <si>
     <t>2005-2007</t>
@@ -156,7 +156,7 @@
     <t>Oug_2001</t>
   </si>
   <si>
-    <t>Skjellvika, Oydegard </t>
+    <t>Skjellvika, Oydegard</t>
   </si>
   <si>
     <t>Sneli_1969</t>
@@ -165,13 +165,13 @@
     <t>Wadden</t>
   </si>
   <si>
-    <t>Konigshafen of Sylt </t>
+    <t>Konigshafen of Sylt</t>
   </si>
   <si>
     <t>Reise_et_al_1994</t>
   </si>
   <si>
-    <t>Friesland </t>
+    <t>Friesland</t>
   </si>
   <si>
     <t>Zwarts_Wanink_1993</t>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>Tryashina</t>
+  </si>
+  <si>
+    <t>Ura</t>
+  </si>
+  <si>
+    <t>West Murman</t>
   </si>
 </sst>
 </file>
@@ -371,19 +377,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100">
-      <selection activeCell="C36" activeCellId="0" pane="topLeft" sqref="C36"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B28" view="normal" windowProtection="false" workbookViewId="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100">
+      <selection activeCell="F37" activeCellId="0" pane="topLeft" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.521568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.7490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.52941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.7882352941176"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4588235294118"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13" outlineLevel="0" r="1">
@@ -1149,6 +1156,29 @@
       </c>
       <c r="H35" s="0" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+      <c r="A36" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>69.321957</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>32.818508</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1204,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6705882352941"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
